--- a/Code/Results/Cases/Case_2_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.12705749538573</v>
+        <v>11.7268977612736</v>
       </c>
       <c r="C2">
-        <v>14.70602506735442</v>
+        <v>9.79233391983235</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.13843359430028</v>
+        <v>16.6512875608202</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>17.15445204053719</v>
+        <v>15.6196625311847</v>
       </c>
       <c r="H2">
-        <v>6.440858782641507</v>
+        <v>10.69305984598574</v>
       </c>
       <c r="I2">
-        <v>8.192837674797003</v>
+        <v>14.52566069640675</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.40983687905466</v>
+        <v>15.23256114932579</v>
       </c>
       <c r="O2">
-        <v>10.29925812416203</v>
+        <v>14.51287010159328</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.87169775174719</v>
+        <v>11.03122198599277</v>
       </c>
       <c r="C3">
-        <v>13.88047377898716</v>
+        <v>9.393387448607269</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.96291365302696</v>
+        <v>15.6978117464415</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.18701640398148</v>
+        <v>15.47850989842839</v>
       </c>
       <c r="H3">
-        <v>6.440365224278982</v>
+        <v>10.73371870449598</v>
       </c>
       <c r="I3">
-        <v>8.41046993811411</v>
+        <v>14.63123272557883</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.39368283811153</v>
+        <v>15.24461718816648</v>
       </c>
       <c r="O3">
-        <v>10.08314093468848</v>
+        <v>14.55279137027828</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.05691460850398</v>
+        <v>10.57892014016331</v>
       </c>
       <c r="C4">
-        <v>13.34799996360177</v>
+        <v>9.138082252656059</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.56209283781253</v>
+        <v>15.08648893994878</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>15.59523358868089</v>
+        <v>15.40075399083871</v>
       </c>
       <c r="H4">
-        <v>6.446947232551023</v>
+        <v>10.76102292764742</v>
       </c>
       <c r="I4">
-        <v>8.555352966048526</v>
+        <v>14.69997423949106</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.38719480922928</v>
+        <v>15.25369081518996</v>
       </c>
       <c r="O4">
-        <v>9.963949499264114</v>
+        <v>14.58222275350954</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.71384005242783</v>
+        <v>10.38832467662627</v>
       </c>
       <c r="C5">
-        <v>13.12466348635842</v>
+        <v>9.031540154861695</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.97459433536465</v>
+        <v>14.83112576560417</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.3549996466425</v>
+        <v>15.3713462812162</v>
       </c>
       <c r="H5">
-        <v>6.451277082485751</v>
+        <v>10.77273643593765</v>
       </c>
       <c r="I5">
-        <v>8.617032294172134</v>
+        <v>14.72897144460455</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.38540006229125</v>
+        <v>15.25780975829413</v>
       </c>
       <c r="O5">
-        <v>9.918710870105469</v>
+        <v>14.59544637573338</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.65620664999223</v>
+        <v>10.35629884973616</v>
       </c>
       <c r="C6">
-        <v>13.08719813163204</v>
+        <v>9.013700914603874</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.87602650218365</v>
+        <v>14.78835455969835</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.3151763626036</v>
+        <v>15.36660172255279</v>
       </c>
       <c r="H6">
-        <v>6.452093126924789</v>
+        <v>10.77471685388701</v>
       </c>
       <c r="I6">
-        <v>8.62742826945404</v>
+        <v>14.73384583537939</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.38515294102342</v>
+        <v>15.2585191876214</v>
       </c>
       <c r="O6">
-        <v>9.911398162640612</v>
+        <v>14.59771623001476</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.05233246450927</v>
+        <v>10.57637505445486</v>
       </c>
       <c r="C7">
-        <v>13.34501354719271</v>
+        <v>9.136655382276267</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.55423743487041</v>
+        <v>15.08306991642536</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>15.59198945518752</v>
+        <v>15.40034811862107</v>
       </c>
       <c r="H7">
-        <v>6.446999065426513</v>
+        <v>10.76117852610564</v>
       </c>
       <c r="I7">
-        <v>8.556174349603065</v>
+        <v>14.70036132136313</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.38716718411218</v>
+        <v>15.25374465713749</v>
       </c>
       <c r="O7">
-        <v>9.963325996030438</v>
+        <v>14.58239612089481</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.70334339281294</v>
+        <v>11.49227329408074</v>
       </c>
       <c r="C8">
-        <v>14.42672687796657</v>
+        <v>9.656980998844524</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.40162958758691</v>
+        <v>16.32804466967644</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>16.82061771606961</v>
+        <v>15.56916786608193</v>
       </c>
       <c r="H8">
-        <v>6.43920916680846</v>
+        <v>10.70659257075207</v>
       </c>
       <c r="I8">
-        <v>8.265418101023636</v>
+        <v>14.56124762220964</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.40354680403032</v>
+        <v>15.23637191188535</v>
       </c>
       <c r="O8">
-        <v>10.22190472481631</v>
+        <v>14.52560984909625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.59214398675641</v>
+        <v>13.0873429154736</v>
       </c>
       <c r="C9">
-        <v>16.34255280877429</v>
+        <v>10.59149559864832</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.48365464951282</v>
+        <v>18.68939558627889</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>19.25873849418138</v>
+        <v>15.96896040893071</v>
       </c>
       <c r="H9">
-        <v>6.482311022040903</v>
+        <v>10.61817822578057</v>
       </c>
       <c r="I9">
-        <v>7.794520690321926</v>
+        <v>14.31960410739308</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.4634997690484</v>
+        <v>15.21551368756914</v>
       </c>
       <c r="O9">
-        <v>10.83820438795454</v>
+        <v>14.45357658611584</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.50328003673529</v>
+        <v>14.13549404846668</v>
       </c>
       <c r="C10">
-        <v>17.62314166241978</v>
+        <v>11.22159403717808</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.93328344482674</v>
+        <v>20.34839710100202</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>21.17116884084532</v>
+        <v>16.30151156664</v>
       </c>
       <c r="H10">
-        <v>6.554674633273662</v>
+        <v>10.56466557514306</v>
       </c>
       <c r="I10">
-        <v>7.525060051244631</v>
+        <v>14.16114311944878</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52536700558989</v>
+        <v>15.20817393855715</v>
       </c>
       <c r="O10">
-        <v>11.35958750175176</v>
+        <v>14.42499002443218</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.32738441846986</v>
+        <v>14.58534766749324</v>
       </c>
       <c r="C11">
-        <v>18.17813806202901</v>
+        <v>11.49530076729246</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.4462670109438</v>
+        <v>21.06034307139853</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>22.0287571253325</v>
+        <v>16.46046742105951</v>
       </c>
       <c r="H11">
-        <v>6.59751390364204</v>
+        <v>10.54282529428894</v>
       </c>
       <c r="I11">
-        <v>7.423275058954121</v>
+        <v>14.09321657196579</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.55756600511027</v>
+        <v>15.20655338590133</v>
       </c>
       <c r="O11">
-        <v>11.61193607069232</v>
+        <v>14.41733557331771</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.63299735538215</v>
+        <v>14.75181633261379</v>
       </c>
       <c r="C12">
-        <v>18.38435697334519</v>
+        <v>11.59704214871203</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.01159947963473</v>
+        <v>21.32382868579417</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>22.35175544719473</v>
+        <v>16.52169476701663</v>
       </c>
       <c r="H12">
-        <v>6.615250248359359</v>
+        <v>10.53491639408536</v>
       </c>
       <c r="I12">
-        <v>7.388121786981669</v>
+        <v>14.06809448877751</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.57035709347749</v>
+        <v>15.20618542533379</v>
       </c>
       <c r="O12">
-        <v>11.7096920491738</v>
+        <v>14.41521072529082</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.56746437938995</v>
+        <v>14.71613697704697</v>
       </c>
       <c r="C13">
-        <v>18.3401191570098</v>
+        <v>11.57521572613386</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.89017472491198</v>
+        <v>21.26735368677254</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>22.28226882438937</v>
+        <v>16.50846350361657</v>
       </c>
       <c r="H13">
-        <v>6.611361688223227</v>
+        <v>10.53660361201894</v>
       </c>
       <c r="I13">
-        <v>7.395535075077913</v>
+        <v>14.07347824567568</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.56757546856756</v>
+        <v>15.20625376694213</v>
       </c>
       <c r="O13">
-        <v>11.68854055573122</v>
+        <v>14.41563387392817</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.35265645370917</v>
+        <v>14.59912094228819</v>
       </c>
       <c r="C14">
-        <v>18.19518276618034</v>
+        <v>11.50370951879382</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.49292660414533</v>
+        <v>21.08214251211878</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>22.05536513154728</v>
+        <v>16.46548431323675</v>
       </c>
       <c r="H14">
-        <v>6.59894224183742</v>
+        <v>10.54216736927917</v>
       </c>
       <c r="I14">
-        <v>7.420312590551147</v>
+        <v>14.09113772001547</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.5586062647928</v>
+        <v>15.20651819734519</v>
       </c>
       <c r="O14">
-        <v>11.61993438236245</v>
+        <v>14.417145231064</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.22024120316916</v>
+        <v>14.52693972733271</v>
       </c>
       <c r="C15">
-        <v>18.1058918249315</v>
+        <v>11.45966051070594</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.24862615328512</v>
+        <v>20.96790023029221</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>21.91615376894555</v>
+        <v>16.43929088836378</v>
       </c>
       <c r="H15">
-        <v>6.591534726263758</v>
+        <v>10.54562246230083</v>
       </c>
       <c r="I15">
-        <v>7.435943650067565</v>
+        <v>14.10203289550018</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.55319069223087</v>
+        <v>15.20671212494251</v>
       </c>
       <c r="O15">
-        <v>11.57819774927776</v>
+        <v>14.41817186356781</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.44851608724269</v>
+        <v>14.10555212023672</v>
       </c>
       <c r="C16">
-        <v>17.58631797561391</v>
+        <v>11.20344237627911</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.83331482399469</v>
+        <v>20.3010125364109</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>21.11487541116826</v>
+        <v>16.29127201063987</v>
       </c>
       <c r="H16">
-        <v>6.55208211248496</v>
+        <v>10.56614339314171</v>
       </c>
       <c r="I16">
-        <v>7.532163664238944</v>
+        <v>14.16566614411996</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.52334559823659</v>
+        <v>15.2083143053872</v>
       </c>
       <c r="O16">
-        <v>11.34340247582221</v>
+        <v>14.42559830568041</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.96352537181828</v>
+        <v>13.84013559190855</v>
       </c>
       <c r="C17">
-        <v>17.26052666897374</v>
+        <v>11.04291423207018</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.95098771515963</v>
+        <v>19.88097508528089</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>20.62014764090161</v>
+        <v>16.20238476296524</v>
       </c>
       <c r="H17">
-        <v>6.530482653190493</v>
+        <v>10.5793745362031</v>
       </c>
       <c r="I17">
-        <v>7.596789329775544</v>
+        <v>14.20576966694501</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.50608581906843</v>
+        <v>15.20973632749838</v>
       </c>
       <c r="O17">
-        <v>11.20325913123366</v>
+        <v>14.43152774809081</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.68030562343748</v>
+        <v>13.68493782922282</v>
       </c>
       <c r="C18">
-        <v>17.07054517221101</v>
+        <v>10.94936808520677</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.43816791597159</v>
+        <v>19.63535557912909</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>20.33442207094263</v>
+        <v>16.1519861159676</v>
       </c>
       <c r="H18">
-        <v>6.518987828531045</v>
+        <v>10.58722022795361</v>
       </c>
       <c r="I18">
-        <v>7.635891019912744</v>
+        <v>14.2292273915987</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.496539258877</v>
+        <v>15.2107160610428</v>
       </c>
       <c r="O18">
-        <v>11.12407926324109</v>
+        <v>14.43544152239063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.58367812755106</v>
+        <v>13.63195498919732</v>
       </c>
       <c r="C19">
-        <v>17.00577477049249</v>
+        <v>10.91748789379916</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.26360665691459</v>
+        <v>19.55150070289924</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>20.23747917264141</v>
+        <v>16.13504892936204</v>
       </c>
       <c r="H19">
-        <v>6.515252688941671</v>
+        <v>10.58991703972937</v>
       </c>
       <c r="I19">
-        <v>7.649450250719092</v>
+        <v>14.23723690240814</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.49337190964189</v>
+        <v>15.21107561686636</v>
       </c>
       <c r="O19">
-        <v>11.09751492946212</v>
+        <v>14.4368529580251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.01559460837507</v>
+        <v>13.86865227378903</v>
       </c>
       <c r="C20">
-        <v>17.29547620906977</v>
+        <v>11.06012879343201</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.04546104556414</v>
+        <v>19.92610512641154</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>20.672933442049</v>
+        <v>16.21177222168914</v>
       </c>
       <c r="H20">
-        <v>6.532685208231857</v>
+        <v>10.57794167439832</v>
       </c>
       <c r="I20">
-        <v>7.589707224948393</v>
+        <v>14.20146007054665</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.50788363227535</v>
+        <v>15.20956821251198</v>
       </c>
       <c r="O20">
-        <v>11.21802984467636</v>
+        <v>14.43084442320589</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.41592552588688</v>
+        <v>14.63359674022021</v>
       </c>
       <c r="C21">
-        <v>18.23786100469675</v>
+        <v>11.52476467072559</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.60981014187642</v>
+        <v>21.13670916035013</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>22.12205927595238</v>
+        <v>16.4780808437746</v>
       </c>
       <c r="H21">
-        <v>6.60254835088858</v>
+        <v>10.54052333396801</v>
       </c>
       <c r="I21">
-        <v>7.412939425399863</v>
+        <v>14.08593439540717</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.56122438811225</v>
+        <v>15.20643387059965</v>
       </c>
       <c r="O21">
-        <v>11.64002591295791</v>
+        <v>14.41668027799007</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.29351528909187</v>
+        <v>15.11091037792833</v>
       </c>
       <c r="C22">
-        <v>18.8307793155541</v>
+        <v>11.8173083426407</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.24172008972103</v>
+        <v>21.8922937051427</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>23.05898927940959</v>
+        <v>16.65812305655683</v>
       </c>
       <c r="H22">
-        <v>6.657072965469917</v>
+        <v>10.51817635415173</v>
       </c>
       <c r="I22">
-        <v>7.317387931503109</v>
+        <v>14.01393143078454</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.59957837277548</v>
+        <v>15.2058168890852</v>
       </c>
       <c r="O22">
-        <v>12.01587061804213</v>
+        <v>14.41193464947234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.82854989086136</v>
+        <v>14.85822960924761</v>
       </c>
       <c r="C23">
-        <v>18.5164221272069</v>
+        <v>11.66220346693967</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.3745925413717</v>
+        <v>21.49227183169648</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>22.55983734490942</v>
+        <v>16.56150635647986</v>
       </c>
       <c r="H23">
-        <v>6.627132319982326</v>
+        <v>10.5299099387007</v>
       </c>
       <c r="I23">
-        <v>7.366415055130952</v>
+        <v>14.05203974770672</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.57878360763622</v>
+        <v>15.20601567355275</v>
       </c>
       <c r="O23">
-        <v>11.77342289192521</v>
+        <v>14.41405338611882</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.99206779097698</v>
+        <v>13.85576799948579</v>
       </c>
       <c r="C24">
-        <v>17.27968386977392</v>
+        <v>11.05235000006941</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.00276700174355</v>
+        <v>19.90571471559496</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>20.64907303205486</v>
+        <v>16.2075259539403</v>
       </c>
       <c r="H24">
-        <v>6.531686564818441</v>
+        <v>10.57858872704876</v>
       </c>
       <c r="I24">
-        <v>7.592903008229889</v>
+        <v>14.20340718800242</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.50706966990876</v>
+        <v>15.20964371195254</v>
       </c>
       <c r="O24">
-        <v>11.21134767544573</v>
+        <v>14.43115178206839</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.84789715748876</v>
+        <v>12.67750883299381</v>
       </c>
       <c r="C25">
-        <v>15.84651252108771</v>
+        <v>10.34834513028258</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.16041137080711</v>
+        <v>18.04032842806736</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.58272046133153</v>
+        <v>15.85374410594886</v>
       </c>
       <c r="H25">
-        <v>6.463872108704733</v>
+        <v>10.64009308548783</v>
       </c>
       <c r="I25">
-        <v>7.909762516392356</v>
+        <v>14.38163164102951</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.44421342906864</v>
+        <v>15.21974905795872</v>
       </c>
       <c r="O25">
-        <v>10.65953939709304</v>
+        <v>14.46881386243014</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_109/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.7268977612736</v>
+        <v>20.12705749538581</v>
       </c>
       <c r="C2">
-        <v>9.79233391983235</v>
+        <v>14.70602506735442</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.6512875608202</v>
+        <v>30.13843359430022</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>15.6196625311847</v>
+        <v>17.15445204053724</v>
       </c>
       <c r="H2">
-        <v>10.69305984598574</v>
+        <v>6.440858782641507</v>
       </c>
       <c r="I2">
-        <v>14.52566069640675</v>
+        <v>8.19283767479693</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.23256114932579</v>
+        <v>11.40983687905466</v>
       </c>
       <c r="O2">
-        <v>14.51287010159328</v>
+        <v>10.29925812416203</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.03122198599277</v>
+        <v>18.87169775174712</v>
       </c>
       <c r="C3">
-        <v>9.393387448607269</v>
+        <v>13.88047377898721</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.6978117464415</v>
+        <v>27.96291365302693</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>15.47850989842839</v>
+        <v>16.18701640398153</v>
       </c>
       <c r="H3">
-        <v>10.73371870449598</v>
+        <v>6.440365224278992</v>
       </c>
       <c r="I3">
-        <v>14.63123272557883</v>
+        <v>8.410469938114209</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.24461718816648</v>
+        <v>11.39368283811156</v>
       </c>
       <c r="O3">
-        <v>14.55279137027828</v>
+        <v>10.08314093468855</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.57892014016331</v>
+        <v>18.05691460850399</v>
       </c>
       <c r="C4">
-        <v>9.138082252656059</v>
+        <v>13.34799996360187</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.08648893994878</v>
+        <v>26.56209283781258</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>15.40075399083871</v>
+        <v>15.59523358868089</v>
       </c>
       <c r="H4">
-        <v>10.76102292764742</v>
+        <v>6.446947232551087</v>
       </c>
       <c r="I4">
-        <v>14.69997423949106</v>
+        <v>8.555352966048618</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.25369081518996</v>
+        <v>11.38719480922934</v>
       </c>
       <c r="O4">
-        <v>14.58222275350954</v>
+        <v>9.963949499264171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.38832467662627</v>
+        <v>17.71384005242785</v>
       </c>
       <c r="C5">
-        <v>9.031540154861695</v>
+        <v>13.12466348635815</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.83112576560417</v>
+        <v>25.97459433536465</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>15.3713462812162</v>
+        <v>15.3549996466425</v>
       </c>
       <c r="H5">
-        <v>10.77273643593765</v>
+        <v>6.451277082485805</v>
       </c>
       <c r="I5">
-        <v>14.72897144460455</v>
+        <v>8.617032294172084</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.25780975829413</v>
+        <v>11.38540006229124</v>
       </c>
       <c r="O5">
-        <v>14.59544637573338</v>
+        <v>9.918710870105478</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.35629884973616</v>
+        <v>17.65620664999228</v>
       </c>
       <c r="C6">
-        <v>9.013700914603874</v>
+        <v>13.08719813163215</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.78835455969835</v>
+        <v>25.87602650218375</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>15.36660172255279</v>
+        <v>15.31517636260364</v>
       </c>
       <c r="H6">
-        <v>10.77471685388701</v>
+        <v>6.452093126924789</v>
       </c>
       <c r="I6">
-        <v>14.73384583537939</v>
+        <v>8.627428269454086</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.2585191876214</v>
+        <v>11.38515294102345</v>
       </c>
       <c r="O6">
-        <v>14.59771623001476</v>
+        <v>9.911398162640586</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.57637505445486</v>
+        <v>18.05233246450928</v>
       </c>
       <c r="C7">
-        <v>9.136655382276267</v>
+        <v>13.34501354719277</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.08306991642536</v>
+        <v>26.55423743487038</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>15.40034811862107</v>
+        <v>15.59198945518755</v>
       </c>
       <c r="H7">
-        <v>10.76117852610564</v>
+        <v>6.446999065426424</v>
       </c>
       <c r="I7">
-        <v>14.70036132136313</v>
+        <v>8.556174349603046</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.25374465713749</v>
+        <v>11.38716718411214</v>
       </c>
       <c r="O7">
-        <v>14.58239612089481</v>
+        <v>9.96332599603042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.49227329408074</v>
+        <v>19.70334339281295</v>
       </c>
       <c r="C8">
-        <v>9.656980998844524</v>
+        <v>14.42672687796649</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.32804466967644</v>
+        <v>29.40162958758701</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>15.56916786608193</v>
+        <v>16.82061771606967</v>
       </c>
       <c r="H8">
-        <v>10.70659257075207</v>
+        <v>6.439209166808419</v>
       </c>
       <c r="I8">
-        <v>14.56124762220964</v>
+        <v>8.26541810102365</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.23637191188535</v>
+        <v>11.40354680403031</v>
       </c>
       <c r="O8">
-        <v>14.52560984909625</v>
+        <v>10.22190472481636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.0873429154736</v>
+        <v>22.59214398675643</v>
       </c>
       <c r="C9">
-        <v>10.59149559864832</v>
+        <v>16.3425528087742</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.68939558627889</v>
+        <v>34.48365464951281</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>15.96896040893071</v>
+        <v>19.2587384941814</v>
       </c>
       <c r="H9">
-        <v>10.61817822578057</v>
+        <v>6.48231102204091</v>
       </c>
       <c r="I9">
-        <v>14.31960410739308</v>
+        <v>7.79452069032194</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.21551368756914</v>
+        <v>11.46349976904837</v>
       </c>
       <c r="O9">
-        <v>14.45357658611584</v>
+        <v>10.83820438795455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13549404846668</v>
+        <v>24.50328003673537</v>
       </c>
       <c r="C10">
-        <v>11.22159403717808</v>
+        <v>17.62314166241964</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.34839710100202</v>
+        <v>37.93328344482665</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>16.30151156664</v>
+        <v>21.17116884084534</v>
       </c>
       <c r="H10">
-        <v>10.56466557514306</v>
+        <v>6.554674633273669</v>
       </c>
       <c r="I10">
-        <v>14.16114311944878</v>
+        <v>7.525060051244556</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.20817393855715</v>
+        <v>11.52536700558989</v>
       </c>
       <c r="O10">
-        <v>14.42499002443218</v>
+        <v>11.35958750175174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.58534766749324</v>
+        <v>25.32738441846985</v>
       </c>
       <c r="C11">
-        <v>11.49530076729246</v>
+        <v>18.17813806202911</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.06034307139853</v>
+        <v>39.44626701094372</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>16.46046742105951</v>
+        <v>22.02875712533244</v>
       </c>
       <c r="H11">
-        <v>10.54282529428894</v>
+        <v>6.597513903642003</v>
       </c>
       <c r="I11">
-        <v>14.09321657196579</v>
+        <v>7.423275058954191</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.20655338590133</v>
+        <v>11.55756600511029</v>
       </c>
       <c r="O11">
-        <v>14.41733557331771</v>
+        <v>11.61193607069234</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.75181633261379</v>
+        <v>25.63299735538215</v>
       </c>
       <c r="C12">
-        <v>11.59704214871203</v>
+        <v>18.38435697334518</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.32382868579417</v>
+        <v>40.01159947963478</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>16.52169476701663</v>
+        <v>22.35175544719468</v>
       </c>
       <c r="H12">
-        <v>10.53491639408536</v>
+        <v>6.615250248359366</v>
       </c>
       <c r="I12">
-        <v>14.06809448877751</v>
+        <v>7.388121786981719</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.20618542533379</v>
+        <v>11.57035709347752</v>
       </c>
       <c r="O12">
-        <v>14.41521072529082</v>
+        <v>11.70969204917381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.71613697704697</v>
+        <v>25.56746437938992</v>
       </c>
       <c r="C13">
-        <v>11.57521572613386</v>
+        <v>18.34011915700979</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.26735368677254</v>
+        <v>39.89017472491192</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>16.50846350361657</v>
+        <v>22.28226882438936</v>
       </c>
       <c r="H13">
-        <v>10.53660361201894</v>
+        <v>6.611361688223234</v>
       </c>
       <c r="I13">
-        <v>14.07347824567568</v>
+        <v>7.395535075077973</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.20625376694213</v>
+        <v>11.56757546856755</v>
       </c>
       <c r="O13">
-        <v>14.41563387392817</v>
+        <v>11.68854055573126</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.59912094228819</v>
+        <v>25.35265645370922</v>
       </c>
       <c r="C14">
-        <v>11.50370951879382</v>
+        <v>18.19518276618021</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.08214251211878</v>
+        <v>39.49292660414532</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>16.46548431323675</v>
+        <v>22.05536513154735</v>
       </c>
       <c r="H14">
-        <v>10.54216736927917</v>
+        <v>6.598942241837396</v>
       </c>
       <c r="I14">
-        <v>14.09113772001547</v>
+        <v>7.420312590551097</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.20651819734519</v>
+        <v>11.55860626479276</v>
       </c>
       <c r="O14">
-        <v>14.417145231064</v>
+        <v>11.61993438236246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.52693972733271</v>
+        <v>25.2202412031692</v>
       </c>
       <c r="C15">
-        <v>11.45966051070594</v>
+        <v>18.1058918249314</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.96790023029221</v>
+        <v>39.24862615328513</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>16.43929088836378</v>
+        <v>21.91615376894564</v>
       </c>
       <c r="H15">
-        <v>10.54562246230083</v>
+        <v>6.591534726263758</v>
       </c>
       <c r="I15">
-        <v>14.10203289550018</v>
+        <v>7.43594365006752</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.20671212494251</v>
+        <v>11.55319069223083</v>
       </c>
       <c r="O15">
-        <v>14.41817186356781</v>
+        <v>11.57819774927778</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.10555212023672</v>
+        <v>24.44851608724264</v>
       </c>
       <c r="C16">
-        <v>11.20344237627911</v>
+        <v>17.58631797561396</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.3010125364109</v>
+        <v>37.83331482399459</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>16.29127201063987</v>
+        <v>21.11487541116829</v>
       </c>
       <c r="H16">
-        <v>10.56614339314171</v>
+        <v>6.552082112485007</v>
       </c>
       <c r="I16">
-        <v>14.16566614411996</v>
+        <v>7.532163664239028</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.2083143053872</v>
+        <v>11.52334559823658</v>
       </c>
       <c r="O16">
-        <v>14.42559830568041</v>
+        <v>11.34340247582225</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.84013559190855</v>
+        <v>23.96352537181825</v>
       </c>
       <c r="C17">
-        <v>11.04291423207018</v>
+        <v>17.26052666897365</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.88097508528089</v>
+        <v>36.95098771515966</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>16.20238476296524</v>
+        <v>20.62014764090168</v>
       </c>
       <c r="H17">
-        <v>10.5793745362031</v>
+        <v>6.530482653190535</v>
       </c>
       <c r="I17">
-        <v>14.20576966694501</v>
+        <v>7.596789329775594</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.20973632749838</v>
+        <v>11.50608581906842</v>
       </c>
       <c r="O17">
-        <v>14.43152774809081</v>
+        <v>11.20325913123371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.68493782922282</v>
+        <v>23.68030562343747</v>
       </c>
       <c r="C18">
-        <v>10.94936808520677</v>
+        <v>17.07054517221097</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.63535557912909</v>
+        <v>36.43816791597156</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>16.1519861159676</v>
+        <v>20.33442207094261</v>
       </c>
       <c r="H18">
-        <v>10.58722022795361</v>
+        <v>6.518987828531171</v>
       </c>
       <c r="I18">
-        <v>14.2292273915987</v>
+        <v>7.635891019912899</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.2107160610428</v>
+        <v>11.49653925887709</v>
       </c>
       <c r="O18">
-        <v>14.43544152239063</v>
+        <v>11.12407926324118</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.63195498919732</v>
+        <v>23.58367812755108</v>
       </c>
       <c r="C19">
-        <v>10.91748789379916</v>
+        <v>17.0057747704924</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.55150070289924</v>
+        <v>36.26360665691459</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>16.13504892936204</v>
+        <v>20.23747917264141</v>
       </c>
       <c r="H19">
-        <v>10.58991703972937</v>
+        <v>6.515252688941678</v>
       </c>
       <c r="I19">
-        <v>14.23723690240814</v>
+        <v>7.649450250719101</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.21107561686636</v>
+        <v>11.49337190964191</v>
       </c>
       <c r="O19">
-        <v>14.4368529580251</v>
+        <v>11.09751492946215</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.86865227378903</v>
+        <v>24.01559460837509</v>
       </c>
       <c r="C20">
-        <v>11.06012879343201</v>
+        <v>17.29547620906979</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.92610512641154</v>
+        <v>37.04546104556407</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>16.21177222168914</v>
+        <v>20.67293344204902</v>
       </c>
       <c r="H20">
-        <v>10.57794167439832</v>
+        <v>6.532685208231863</v>
       </c>
       <c r="I20">
-        <v>14.20146007054665</v>
+        <v>7.589707224948484</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.20956821251198</v>
+        <v>11.50788363227539</v>
       </c>
       <c r="O20">
-        <v>14.43084442320589</v>
+        <v>11.21802984467638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.63359674022021</v>
+        <v>25.41592552588688</v>
       </c>
       <c r="C21">
-        <v>11.52476467072559</v>
+        <v>18.2378610046967</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.13670916035013</v>
+        <v>39.60981014187639</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>16.4780808437746</v>
+        <v>22.12205927595237</v>
       </c>
       <c r="H21">
-        <v>10.54052333396801</v>
+        <v>6.602548350888596</v>
       </c>
       <c r="I21">
-        <v>14.08593439540717</v>
+        <v>7.412939425399881</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.20643387059965</v>
+        <v>11.56122438811225</v>
       </c>
       <c r="O21">
-        <v>14.41668027799007</v>
+        <v>11.64002591295793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.11091037792833</v>
+        <v>26.29351528909177</v>
       </c>
       <c r="C22">
-        <v>11.8173083426407</v>
+        <v>18.83077931555416</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.8922937051427</v>
+        <v>41.24172008972101</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>16.65812305655683</v>
+        <v>23.05898927940958</v>
       </c>
       <c r="H22">
-        <v>10.51817635415173</v>
+        <v>6.657072965469924</v>
       </c>
       <c r="I22">
-        <v>14.01393143078454</v>
+        <v>7.317387931503186</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.2058168890852</v>
+        <v>11.59957837277544</v>
       </c>
       <c r="O22">
-        <v>14.41193464947234</v>
+        <v>12.01587061804213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.85822960924761</v>
+        <v>25.8285498908613</v>
       </c>
       <c r="C23">
-        <v>11.66220346693967</v>
+        <v>18.51642212720686</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.49227183169648</v>
+        <v>40.37459254137165</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>16.56150635647986</v>
+        <v>22.55983734490935</v>
       </c>
       <c r="H23">
-        <v>10.5299099387007</v>
+        <v>6.627132319982406</v>
       </c>
       <c r="I23">
-        <v>14.05203974770672</v>
+        <v>7.366415055131108</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.20601567355275</v>
+        <v>11.57878360763626</v>
       </c>
       <c r="O23">
-        <v>14.41405338611882</v>
+        <v>11.77342289192528</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.85576799948579</v>
+        <v>23.99206779097699</v>
       </c>
       <c r="C24">
-        <v>11.05235000006941</v>
+        <v>17.27968386977381</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.90571471559496</v>
+        <v>37.00276700174354</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>16.2075259539403</v>
+        <v>20.64907303205497</v>
       </c>
       <c r="H24">
-        <v>10.57858872704876</v>
+        <v>6.531686564818516</v>
       </c>
       <c r="I24">
-        <v>14.20340718800242</v>
+        <v>7.592903008229862</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.20964371195254</v>
+        <v>11.50706966990868</v>
       </c>
       <c r="O24">
-        <v>14.43115178206839</v>
+        <v>11.21134767544575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.67750883299381</v>
+        <v>21.84789715748881</v>
       </c>
       <c r="C25">
-        <v>10.34834513028258</v>
+        <v>15.84651252108777</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.04032842806736</v>
+        <v>33.16041137080705</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>15.85374410594886</v>
+        <v>18.58272046133155</v>
       </c>
       <c r="H25">
-        <v>10.64009308548783</v>
+        <v>6.463872108704733</v>
       </c>
       <c r="I25">
-        <v>14.38163164102951</v>
+        <v>7.90976251639228</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.21974905795872</v>
+        <v>11.44421342906864</v>
       </c>
       <c r="O25">
-        <v>14.46881386243014</v>
+        <v>10.659539397093</v>
       </c>
     </row>
   </sheetData>
